--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63270.87509976073</v>
+        <v>55108.21568324872</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3036488.258408899</v>
+        <v>3036488.258408898</v>
       </c>
     </row>
     <row r="11">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>30.7078552878305</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796783</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424596</v>
       </c>
       <c r="X8" t="n">
-        <v>104.8891084057993</v>
+        <v>119.0839105424596</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>119.0839105424596</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>87.60794153263939</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>87.60794153263862</v>
       </c>
       <c r="X9" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424596</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>119.0839105424596</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>46.05514816323235</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>46.05514816323278</v>
+        <v>119.0839105424596</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>167.574790256137</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>213.5382021707743</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306967</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>3.463531872423959</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>155.972925266962</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>236.2665936936973</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>32.52127443762086</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>112.8460249915277</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>80.85496735608339</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>148.9402274414026</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>186.8835669644657</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>20.73297797415462</v>
       </c>
       <c r="U19" t="n">
-        <v>90.73611379905117</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>195.5301563101353</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>363.2732274219866</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>26.54482937423079</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>56.91001563953823</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>149.6157531058532</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>330.721118081506</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U24" t="n">
-        <v>174.5071388043584</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V24" t="n">
         <v>197.1263427586206</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2484,13 +2484,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>24.83686707040897</v>
       </c>
       <c r="U25" t="n">
-        <v>134.132916446935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>187.5335132761507</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>93.53818910684734</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>73.20665533839477</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>34.51516921304781</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>14.74974525637034</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>149.6157531058532</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>131.3576479578674</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
@@ -3012,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>34.51516921304781</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>217.00286165872</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>118.1917635269044</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>81.8593756014652</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>5.033780699103962</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>237.8187742085242</v>
+        <v>198.7468763862152</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>5.033780699103863</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>180.4299563715371</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>149.6157531058532</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>271.4864251421897</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>80.94898115639519</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>55.49107235181549</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -3802,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>130.0550729486537</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>209.1886768583129</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>40.81179447522087</v>
+        <v>5.033780699103969</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3979,13 +3979,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>266.2194037495149</v>
+        <v>373.7232621786854</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>5.033780699103863</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>101.6635456895367</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.8134911691147</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="C8" t="n">
-        <v>129.8134911691147</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="D8" t="n">
-        <v>129.8134911691147</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="E8" t="n">
-        <v>129.8134911691147</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396854</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396854</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396854</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585565</v>
+        <v>23.5795474158554</v>
       </c>
       <c r="J8" t="n">
-        <v>55.4163230655802</v>
+        <v>55.41632306557962</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318068</v>
+        <v>103.1313969318058</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183092</v>
+        <v>162.3261653183076</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590926</v>
+        <v>228.1917507590904</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326574</v>
+        <v>295.1231102326547</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336416</v>
+        <v>358.3244950336382</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455661</v>
+        <v>412.2654147455622</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245003</v>
+        <v>452.772799024496</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698427</v>
+        <v>476.3356421698383</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698427</v>
+        <v>401.4050834648202</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698427</v>
+        <v>401.4050834648202</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698427</v>
+        <v>401.4050834648202</v>
       </c>
       <c r="V8" t="n">
-        <v>356.0488638441249</v>
+        <v>401.4050834648202</v>
       </c>
       <c r="W8" t="n">
-        <v>235.762085518407</v>
+        <v>281.1183051391035</v>
       </c>
       <c r="X8" t="n">
-        <v>129.8134911691147</v>
+        <v>160.8315268133867</v>
       </c>
       <c r="Y8" t="n">
-        <v>129.8134911691147</v>
+        <v>40.54474848767001</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>235.762085518407</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="C9" t="n">
-        <v>147.2692152834177</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="D9" t="n">
-        <v>147.2692152834177</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="E9" t="n">
-        <v>147.2692152834177</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="F9" t="n">
-        <v>147.2692152834177</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="G9" t="n">
-        <v>147.2692152834177</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="H9" t="n">
-        <v>147.2692152834177</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="I9" t="n">
-        <v>154.1792871911676</v>
+        <v>16.43678475114664</v>
       </c>
       <c r="J9" t="n">
-        <v>173.1410526643959</v>
+        <v>35.39855022437468</v>
       </c>
       <c r="K9" t="n">
-        <v>205.5497300437117</v>
+        <v>67.80722760369024</v>
       </c>
       <c r="L9" t="n">
-        <v>249.127196259401</v>
+        <v>111.3846938193791</v>
       </c>
       <c r="M9" t="n">
-        <v>299.9800439168168</v>
+        <v>162.2375414767944</v>
       </c>
       <c r="N9" t="n">
-        <v>352.1788151343536</v>
+        <v>214.4363126943307</v>
       </c>
       <c r="O9" t="n">
-        <v>399.9304929406861</v>
+        <v>262.1879905006629</v>
       </c>
       <c r="P9" t="n">
-        <v>438.2554242425481</v>
+        <v>300.5129218025245</v>
       </c>
       <c r="Q9" t="n">
-        <v>463.8746258735233</v>
+        <v>326.1321234334993</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698427</v>
+        <v>338.5931397298187</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698427</v>
+        <v>338.5931397298187</v>
       </c>
       <c r="T9" t="n">
-        <v>476.3356421698427</v>
+        <v>338.5931397298187</v>
       </c>
       <c r="U9" t="n">
-        <v>476.3356421698427</v>
+        <v>338.5931397298187</v>
       </c>
       <c r="V9" t="n">
-        <v>356.0488638441249</v>
+        <v>338.5931397298187</v>
       </c>
       <c r="W9" t="n">
-        <v>356.0488638441249</v>
+        <v>250.1002694948302</v>
       </c>
       <c r="X9" t="n">
-        <v>235.762085518407</v>
+        <v>129.8134911691135</v>
       </c>
       <c r="Y9" t="n">
-        <v>235.762085518407</v>
+        <v>9.526712843396766</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>309.5285121640918</v>
+        <v>56.04706452342944</v>
       </c>
       <c r="C10" t="n">
-        <v>309.5285121640918</v>
+        <v>56.04706452342944</v>
       </c>
       <c r="D10" t="n">
-        <v>309.5285121640918</v>
+        <v>56.04706452342944</v>
       </c>
       <c r="E10" t="n">
-        <v>309.5285121640918</v>
+        <v>56.04706452342944</v>
       </c>
       <c r="F10" t="n">
-        <v>309.5285121640918</v>
+        <v>56.04706452342944</v>
       </c>
       <c r="G10" t="n">
-        <v>309.5285121640918</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="H10" t="n">
-        <v>309.5285121640918</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="I10" t="n">
-        <v>309.5285121640918</v>
+        <v>9.526712843396766</v>
       </c>
       <c r="J10" t="n">
-        <v>321.42451445712</v>
+        <v>21.42271513642486</v>
       </c>
       <c r="K10" t="n">
-        <v>340.9733005320718</v>
+        <v>40.97150121137651</v>
       </c>
       <c r="L10" t="n">
-        <v>365.989016296529</v>
+        <v>65.98721697583342</v>
       </c>
       <c r="M10" t="n">
-        <v>392.364581107984</v>
+        <v>92.36278178728814</v>
       </c>
       <c r="N10" t="n">
-        <v>418.1129939405085</v>
+        <v>118.1111946198125</v>
       </c>
       <c r="O10" t="n">
-        <v>441.8958206927269</v>
+        <v>141.8940213720307</v>
       </c>
       <c r="P10" t="n">
-        <v>462.2461375895313</v>
+        <v>162.2443382688348</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698427</v>
+        <v>176.3338428491462</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698427</v>
+        <v>176.3338428491462</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698427</v>
+        <v>176.3338428491462</v>
       </c>
       <c r="T10" t="n">
-        <v>356.0488638441249</v>
+        <v>176.3338428491462</v>
       </c>
       <c r="U10" t="n">
-        <v>356.0488638441249</v>
+        <v>176.3338428491462</v>
       </c>
       <c r="V10" t="n">
-        <v>309.5285121640918</v>
+        <v>56.04706452342944</v>
       </c>
       <c r="W10" t="n">
-        <v>309.5285121640918</v>
+        <v>56.04706452342944</v>
       </c>
       <c r="X10" t="n">
-        <v>309.5285121640918</v>
+        <v>56.04706452342944</v>
       </c>
       <c r="Y10" t="n">
-        <v>309.5285121640918</v>
+        <v>56.04706452342944</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C11" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D11" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E11" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K11" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5059,34 +5059,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2108.089956131647</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>1849.019264653161</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1486.402314586987</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>1317.134849681798</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X11" t="n">
-        <v>1317.134849681798</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="Y11" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="12">
@@ -5111,13 +5111,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>410.8855961637249</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="C13" t="n">
-        <v>410.8855961637249</v>
+        <v>717.0980114955063</v>
       </c>
       <c r="D13" t="n">
-        <v>410.8855961637249</v>
+        <v>551.220018697029</v>
       </c>
       <c r="E13" t="n">
-        <v>410.8855961637249</v>
+        <v>381.4620149477662</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>204.7549609095225</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M13" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N13" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O13" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P13" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q13" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R13" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S13" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T13" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U13" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V13" t="n">
-        <v>602.704214882712</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W13" t="n">
-        <v>602.704214882712</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X13" t="n">
-        <v>602.704214882712</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y13" t="n">
-        <v>602.704214882712</v>
+        <v>889.6597230122813</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.20655154895475</v>
+        <v>713.7271060828756</v>
       </c>
       <c r="C14" t="n">
-        <v>47.20655154895475</v>
+        <v>713.7271060828756</v>
       </c>
       <c r="D14" t="n">
-        <v>47.20655154895475</v>
+        <v>713.7271060828756</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895475</v>
+        <v>713.7271060828756</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895475</v>
+        <v>285.8596764920833</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435811</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228021</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867028</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2327.477805288524</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U14" t="n">
-        <v>2068.407113810038</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V14" t="n">
-        <v>1705.790163743865</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W14" t="n">
-        <v>1300.934709154898</v>
+        <v>1122.013229783222</v>
       </c>
       <c r="X14" t="n">
-        <v>881.7922457342091</v>
+        <v>1122.013229783222</v>
       </c>
       <c r="Y14" t="n">
-        <v>473.5061220338625</v>
+        <v>713.7271060828756</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210686</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960908</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987882</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5378,7 +5378,7 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q15" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R15" t="n">
         <v>1676.651116233592</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="C16" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="D16" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E16" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F16" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M16" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N16" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O16" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P16" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q16" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R16" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S16" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T16" t="n">
-        <v>889.6597230122815</v>
+        <v>631.2473006866899</v>
       </c>
       <c r="U16" t="n">
-        <v>611.2730910610244</v>
+        <v>631.2473006866899</v>
       </c>
       <c r="V16" t="n">
-        <v>324.3175829314549</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="W16" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="X16" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="Y16" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.2588091910869</v>
+        <v>1025.021346643505</v>
       </c>
       <c r="C17" t="n">
-        <v>483.1163363745102</v>
+        <v>1025.021346643505</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895475</v>
+        <v>1025.021346643505</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895475</v>
+        <v>1025.021346643505</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895475</v>
+        <v>597.1539170527126</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895475</v>
+        <v>197.6512257321897</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895475</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V17" t="n">
-        <v>2171.556297685651</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="W17" t="n">
-        <v>1766.700843096684</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X17" t="n">
-        <v>1347.558379675995</v>
+        <v>1025.021346643505</v>
       </c>
       <c r="Y17" t="n">
-        <v>1347.558379675995</v>
+        <v>1025.021346643505</v>
       </c>
     </row>
     <row r="18">
@@ -5576,16 +5576,16 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235851</v>
       </c>
       <c r="H18" t="n">
         <v>47.20655154895475</v>
@@ -5597,13 +5597,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987882</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5615,7 +5615,7 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R18" t="n">
         <v>1676.651116233592</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.20655154895475</v>
+        <v>724.2907825224203</v>
       </c>
       <c r="C19" t="n">
-        <v>47.20655154895475</v>
+        <v>724.2907825224203</v>
       </c>
       <c r="D19" t="n">
-        <v>47.20655154895475</v>
+        <v>558.412789723943</v>
       </c>
       <c r="E19" t="n">
-        <v>47.20655154895475</v>
+        <v>388.6547859746802</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895475</v>
+        <v>211.9477319364364</v>
       </c>
       <c r="G19" t="n">
         <v>47.20655154895475</v>
@@ -5676,49 +5676,49 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M19" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N19" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O19" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P19" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q19" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R19" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S19" t="n">
-        <v>889.6597230122816</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T19" t="n">
-        <v>889.6597230122816</v>
+        <v>724.2907825224203</v>
       </c>
       <c r="U19" t="n">
-        <v>798.0070828112198</v>
+        <v>724.2907825224203</v>
       </c>
       <c r="V19" t="n">
-        <v>511.0515746816503</v>
+        <v>724.2907825224203</v>
       </c>
       <c r="W19" t="n">
-        <v>239.0251702679419</v>
+        <v>724.2907825224203</v>
       </c>
       <c r="X19" t="n">
-        <v>239.0251702679419</v>
+        <v>724.2907825224203</v>
       </c>
       <c r="Y19" t="n">
-        <v>239.0251702679419</v>
+        <v>724.2907825224203</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1952.041453747391</v>
+        <v>1122.013229783224</v>
       </c>
       <c r="C20" t="n">
-        <v>1513.898980930814</v>
+        <v>683.8707569666469</v>
       </c>
       <c r="D20" t="n">
-        <v>1077.989196105259</v>
+        <v>683.8707569666469</v>
       </c>
       <c r="E20" t="n">
-        <v>644.2144512635537</v>
+        <v>683.8707569666469</v>
       </c>
       <c r="F20" t="n">
-        <v>446.7092428694776</v>
+        <v>683.8707569666469</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895475</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895475</v>
@@ -5752,19 +5752,19 @@
         <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K20" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867028</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O20" t="n">
         <v>1775.96950697326</v>
@@ -5782,22 +5782,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438364</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1122.013229783224</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447737</v>
+        <v>1122.013229783224</v>
       </c>
       <c r="Y20" t="n">
-        <v>1952.041453747391</v>
+        <v>1122.013229783224</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.5713050663908</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495865</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.9041403765402</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927018</v>
       </c>
       <c r="G21" t="n">
         <v>79.1492015823585</v>
@@ -5828,25 +5828,25 @@
         <v>47.20655154895475</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043032</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5870,13 +5870,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>945.2284211280532</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>372.2415639319856</v>
+        <v>687.748320234154</v>
       </c>
       <c r="C22" t="n">
-        <v>372.2415639319856</v>
+        <v>515.1866087173789</v>
       </c>
       <c r="D22" t="n">
-        <v>206.3635711335083</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="E22" t="n">
-        <v>206.3635711335083</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F22" t="n">
-        <v>206.3635711335083</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G22" t="n">
-        <v>206.3635711335083</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>74.01951051282424</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895475</v>
@@ -5916,46 +5916,46 @@
         <v>202.9123158186961</v>
       </c>
       <c r="L22" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M22" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N22" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O22" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P22" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q22" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R22" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S22" t="n">
-        <v>889.6597230122816</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T22" t="n">
-        <v>889.6597230122816</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U22" t="n">
-        <v>889.6597230122816</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V22" t="n">
-        <v>889.6597230122816</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W22" t="n">
-        <v>617.6333185985732</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X22" t="n">
-        <v>372.2415639319856</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y22" t="n">
-        <v>372.2415639319856</v>
+        <v>687.748320234154</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1934.02800696283</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="C23" t="n">
-        <v>1495.885534146253</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D23" t="n">
-        <v>1059.975749320698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E23" t="n">
-        <v>626.2010044789927</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F23" t="n">
-        <v>198.3335748882004</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895475</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895475</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="X23" t="n">
-        <v>2360.327577447737</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="Y23" t="n">
-        <v>2360.327577447737</v>
+        <v>1152.340579151123</v>
       </c>
     </row>
     <row r="24">
@@ -6089,16 +6089,16 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R24" t="n">
-        <v>1676.651116233593</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S24" t="n">
-        <v>1632.030085633327</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T24" t="n">
-        <v>1505.93853050898</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U24" t="n">
         <v>1329.66869333286</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.353309902451</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C25" t="n">
-        <v>389.7915983856759</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D25" t="n">
-        <v>223.9136055871986</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E25" t="n">
-        <v>223.9136055871986</v>
+        <v>211.9477319364364</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895475</v>
+        <v>211.9477319364364</v>
       </c>
       <c r="G25" t="n">
         <v>47.20655154895475</v>
@@ -6174,25 +6174,25 @@
         <v>889.6597230122816</v>
       </c>
       <c r="S25" t="n">
-        <v>889.6597230122816</v>
+        <v>745.2331845165161</v>
       </c>
       <c r="T25" t="n">
-        <v>889.6597230122816</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="U25" t="n">
-        <v>754.1719286214382</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="V25" t="n">
-        <v>754.1719286214382</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="W25" t="n">
-        <v>754.1719286214382</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="X25" t="n">
-        <v>754.1719286214382</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="Y25" t="n">
-        <v>754.1719286214382</v>
+        <v>720.1454400009515</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.3558941930753</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="C26" t="n">
-        <v>506.3558941930753</v>
+        <v>1410.876791836584</v>
       </c>
       <c r="D26" t="n">
-        <v>506.3558941930753</v>
+        <v>974.9670070110283</v>
       </c>
       <c r="E26" t="n">
-        <v>316.9281030050443</v>
+        <v>541.1922621693234</v>
       </c>
       <c r="F26" t="n">
-        <v>316.9281030050443</v>
+        <v>541.1922621693234</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>141.6895708488005</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6247,31 +6247,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>1738.639935903078</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W26" t="n">
-        <v>1333.784481314111</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X26" t="n">
-        <v>914.6420178934219</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.3558941930753</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
         <v>81.42328772043086</v>
@@ -6320,7 +6320,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P27" t="n">
         <v>1488.088567599445</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.20655154895475</v>
+        <v>470.4214336074027</v>
       </c>
       <c r="C28" t="n">
-        <v>47.20655154895475</v>
+        <v>297.8597220906276</v>
       </c>
       <c r="D28" t="n">
-        <v>47.20655154895475</v>
+        <v>297.8597220906276</v>
       </c>
       <c r="E28" t="n">
-        <v>47.20655154895475</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
@@ -6414,22 +6414,22 @@
         <v>889.6597230122816</v>
       </c>
       <c r="T28" t="n">
-        <v>647.4124989156882</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="U28" t="n">
-        <v>369.0258669644311</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="V28" t="n">
-        <v>82.07035883486162</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="W28" t="n">
-        <v>47.20655154895475</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="X28" t="n">
-        <v>47.20655154895475</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.20655154895475</v>
+        <v>662.2400523263898</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>489.9727137219393</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C29" t="n">
-        <v>489.9727137219393</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D29" t="n">
-        <v>489.9727137219393</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>489.9727137219393</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>62.10528413114702</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G29" t="n">
         <v>47.20655154895475</v>
@@ -6460,16 +6460,16 @@
         <v>47.20655154895475</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435811</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228021</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6493,22 +6493,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2148.55632591685</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U29" t="n">
-        <v>2148.55632591685</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V29" t="n">
-        <v>2148.55632591685</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W29" t="n">
-        <v>1743.700871327883</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X29" t="n">
-        <v>1324.558407907194</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y29" t="n">
-        <v>916.2722842068471</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M30" t="n">
-        <v>803.3877032987882</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
         <v>1488.088567599445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R30" t="n">
         <v>1676.651116233592</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.20655154895475</v>
+        <v>179.8910444356895</v>
       </c>
       <c r="C31" t="n">
-        <v>47.20655154895475</v>
+        <v>179.8910444356895</v>
       </c>
       <c r="D31" t="n">
-        <v>47.20655154895475</v>
+        <v>179.8910444356895</v>
       </c>
       <c r="E31" t="n">
-        <v>47.20655154895475</v>
+        <v>179.8910444356895</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895475</v>
+        <v>179.8910444356895</v>
       </c>
       <c r="G31" t="n">
         <v>47.20655154895475</v>
@@ -6648,25 +6648,25 @@
         <v>889.6597230122816</v>
       </c>
       <c r="S31" t="n">
-        <v>889.6597230122816</v>
+        <v>745.2331845165161</v>
       </c>
       <c r="T31" t="n">
-        <v>647.4124989156882</v>
+        <v>745.2331845165161</v>
       </c>
       <c r="U31" t="n">
-        <v>369.0258669644311</v>
+        <v>466.8465525652591</v>
       </c>
       <c r="V31" t="n">
-        <v>82.07035883486162</v>
+        <v>179.8910444356895</v>
       </c>
       <c r="W31" t="n">
-        <v>47.20655154895475</v>
+        <v>179.8910444356895</v>
       </c>
       <c r="X31" t="n">
-        <v>47.20655154895475</v>
+        <v>179.8910444356895</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.20655154895475</v>
+        <v>179.8910444356895</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1128.043535737735</v>
+        <v>1474.419173756938</v>
       </c>
       <c r="C32" t="n">
-        <v>908.8487259814518</v>
+        <v>1036.276700940361</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>600.3669161148055</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>166.5921712731006</v>
       </c>
       <c r="F32" t="n">
         <v>47.20655154895475</v>
@@ -6697,7 +6697,7 @@
         <v>47.20655154895475</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
         <v>276.0532770435809</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="W32" t="n">
-        <v>1955.472122858771</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="X32" t="n">
-        <v>1536.329659438081</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y32" t="n">
-        <v>1128.043535737735</v>
+        <v>1900.718744241845</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M33" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
         <v>1488.088567599445</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.20655154895475</v>
+        <v>52.29117851774663</v>
       </c>
       <c r="C34" t="n">
-        <v>47.20655154895475</v>
+        <v>52.29117851774663</v>
       </c>
       <c r="D34" t="n">
-        <v>47.20655154895475</v>
+        <v>52.29117851774663</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895475</v>
+        <v>52.29117851774663</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895475</v>
+        <v>52.29117851774663</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895475</v>
+        <v>52.29117851774663</v>
       </c>
       <c r="H34" t="n">
         <v>47.20655154895475</v>
@@ -6891,19 +6891,19 @@
         <v>889.6597230122816</v>
       </c>
       <c r="U34" t="n">
-        <v>889.6597230122816</v>
+        <v>611.2730910610246</v>
       </c>
       <c r="V34" t="n">
-        <v>602.704214882712</v>
+        <v>324.3175829314551</v>
       </c>
       <c r="W34" t="n">
-        <v>602.704214882712</v>
+        <v>52.29117851774663</v>
       </c>
       <c r="X34" t="n">
-        <v>357.3124602161245</v>
+        <v>52.29117851774663</v>
       </c>
       <c r="Y34" t="n">
-        <v>129.8927895302327</v>
+        <v>52.29117851774663</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.20655154895475</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C35" t="n">
-        <v>47.20655154895475</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D35" t="n">
         <v>47.20655154895475</v>
@@ -6979,10 +6979,10 @@
         <v>1122.013229783224</v>
       </c>
       <c r="X35" t="n">
-        <v>881.7922457342091</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="Y35" t="n">
-        <v>473.5061220338625</v>
+        <v>921.2588091910869</v>
       </c>
     </row>
     <row r="36">
@@ -7037,7 +7037,7 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R36" t="n">
         <v>1676.651116233592</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>219.7682630657298</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="C37" t="n">
         <v>47.20655154895475</v>
@@ -7125,22 +7125,22 @@
         <v>889.6597230122816</v>
       </c>
       <c r="T37" t="n">
-        <v>647.4124989156882</v>
+        <v>884.5750960434898</v>
       </c>
       <c r="U37" t="n">
-        <v>647.4124989156882</v>
+        <v>606.1884640922327</v>
       </c>
       <c r="V37" t="n">
-        <v>465.1600177323173</v>
+        <v>319.2329559626632</v>
       </c>
       <c r="W37" t="n">
-        <v>465.1600177323173</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="X37" t="n">
-        <v>219.7682630657298</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.7682630657298</v>
+        <v>47.20655154895475</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1318.626460527759</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>880.4839877111824</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>880.4839877111824</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895475</v>
@@ -7171,16 +7171,16 @@
         <v>47.20655154895475</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7204,22 +7204,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V38" t="n">
-        <v>1997.710627381564</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W38" t="n">
-        <v>1592.855172792597</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X38" t="n">
-        <v>1318.626460527759</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y38" t="n">
-        <v>1318.626460527759</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987882</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
         <v>1488.088567599445</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>388.6547859746802</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="C40" t="n">
-        <v>388.6547859746802</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6547859746802</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="E40" t="n">
-        <v>388.6547859746802</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="F40" t="n">
-        <v>211.9477319364364</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G40" t="n">
         <v>47.20655154895475</v>
@@ -7368,16 +7368,16 @@
         <v>889.6597230122816</v>
       </c>
       <c r="V40" t="n">
-        <v>889.6597230122816</v>
+        <v>602.704214882712</v>
       </c>
       <c r="W40" t="n">
-        <v>807.8930753795591</v>
+        <v>330.6778104690035</v>
       </c>
       <c r="X40" t="n">
-        <v>807.8930753795591</v>
+        <v>274.6262222348465</v>
       </c>
       <c r="Y40" t="n">
-        <v>580.4734046936674</v>
+        <v>47.20655154895475</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1355.033554032792</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="C41" t="n">
-        <v>916.8910812162151</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D41" t="n">
         <v>480.9812963906596</v>
       </c>
       <c r="E41" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7432,31 +7432,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131647</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.019264653161</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586987</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W41" t="n">
-        <v>1355.033554032792</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="X41" t="n">
-        <v>1355.033554032792</v>
+        <v>1315.566990575914</v>
       </c>
       <c r="Y41" t="n">
-        <v>1355.033554032792</v>
+        <v>907.2808668755674</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987882</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
         <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
         <v>1676.651116233592</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88.43058637241018</v>
+        <v>52.29117851774663</v>
       </c>
       <c r="C43" t="n">
-        <v>88.43058637241018</v>
+        <v>52.29117851774663</v>
       </c>
       <c r="D43" t="n">
-        <v>88.43058637241018</v>
+        <v>52.29117851774663</v>
       </c>
       <c r="E43" t="n">
-        <v>88.43058637241018</v>
+        <v>52.29117851774663</v>
       </c>
       <c r="F43" t="n">
-        <v>88.43058637241018</v>
+        <v>52.29117851774663</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
         <v>106.1122152511379</v>
@@ -7599,22 +7599,22 @@
         <v>889.6597230122816</v>
       </c>
       <c r="T43" t="n">
-        <v>647.4124989156882</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="U43" t="n">
-        <v>647.4124989156882</v>
+        <v>611.2730910610246</v>
       </c>
       <c r="V43" t="n">
-        <v>360.4569907861186</v>
+        <v>324.3175829314551</v>
       </c>
       <c r="W43" t="n">
-        <v>88.43058637241018</v>
+        <v>52.29117851774663</v>
       </c>
       <c r="X43" t="n">
-        <v>88.43058637241018</v>
+        <v>52.29117851774663</v>
       </c>
       <c r="Y43" t="n">
-        <v>88.43058637241018</v>
+        <v>52.29117851774663</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>743.9824697756206</v>
+        <v>1722.256755431942</v>
       </c>
       <c r="C44" t="n">
-        <v>475.073981139747</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>475.073981139747</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
         <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867032</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973261</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.06979815253</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163597</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447738</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447738</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="V44" t="n">
-        <v>1997.710627381564</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="W44" t="n">
-        <v>1997.710627381564</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="X44" t="n">
-        <v>1578.568163960875</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="Y44" t="n">
-        <v>1170.282040260528</v>
+        <v>2148.55632591685</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043088</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987882</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
         <v>1676.651116233592</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.5496021349386</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="C46" t="n">
-        <v>559.5496021349386</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364613</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871986</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511379</v>
@@ -7836,22 +7836,22 @@
         <v>889.6597230122816</v>
       </c>
       <c r="T46" t="n">
-        <v>889.6597230122816</v>
+        <v>884.5750960434898</v>
       </c>
       <c r="U46" t="n">
-        <v>889.6597230122816</v>
+        <v>606.1884640922327</v>
       </c>
       <c r="V46" t="n">
-        <v>889.6597230122816</v>
+        <v>319.2329559626632</v>
       </c>
       <c r="W46" t="n">
-        <v>889.6597230122816</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="X46" t="n">
-        <v>786.9692728208304</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="Y46" t="n">
-        <v>559.5496021349386</v>
+        <v>47.20655154895475</v>
       </c>
     </row>
   </sheetData>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>391.3287194922282</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23032,13 +23032,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>304.5048447524237</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>282.3584801445919</v>
+        <v>282.358480144592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796776</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
@@ -23080,16 +23080,16 @@
         <v>256.599767943293</v>
       </c>
       <c r="V8" t="n">
-        <v>239.9068700230511</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>281.7229895006163</v>
+        <v>281.7229895006175</v>
       </c>
       <c r="X8" t="n">
-        <v>310.0619303806831</v>
+        <v>295.8671282440229</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>285.1193519208836</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>17.78395501908474</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
@@ -23117,7 +23117,7 @@
         <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809191</v>
+        <v>39.36037526809194</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656965</v>
+        <v>59.05530966656968</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
@@ -23159,16 +23159,16 @@
         <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221615995</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>95.8615851914993</v>
       </c>
       <c r="X9" t="n">
-        <v>34.23485086104812</v>
+        <v>34.23485086104924</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>6.137010886111852</v>
       </c>
     </row>
     <row r="10">
@@ -23193,13 +23193,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.7654023385416</v>
+        <v>117.7102541753093</v>
       </c>
       <c r="H10" t="n">
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.6621924374279</v>
+        <v>82.66219243742796</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616408</v>
+        <v>13.56162857616415</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
       </c>
       <c r="T10" t="n">
-        <v>123.6105491751611</v>
+        <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
         <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>238.0308048850411</v>
+        <v>165.0020425058143</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -23266,13 +23266,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>233.23210978694</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>190.6650602925688</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>171.4764516254374</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>7.120843316644738</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23506,10 +23506,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>159.2410707136203</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>177.132264577958</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>126.9787268640997</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>188.451173013488</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>118.084108500126</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>172.107213601046</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>219.0917738814728</v>
       </c>
       <c r="U19" t="n">
-        <v>184.8666518326933</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>228.058598984749</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>32.234436985331</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24129,13 +24129,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>35.91950432388363</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -24189,13 +24189,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>168.2354583394946</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>245.8919113014644</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>70.085781961571</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144772</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>214.9878847852185</v>
       </c>
       <c r="U25" t="n">
-        <v>141.4698491848094</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -24445,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.9034841171371</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>173.4861468346813</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>94.85376837337535</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
@@ -24654,22 +24654,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>234.7909711565236</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>380.7579191509473</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24733,7 +24733,7 @@
         <v>40.06170608735098</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -24742,13 +24742,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>265.3352856806292</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>31.73612062573932</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144772</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>234.7909711565236</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>216.758186429691</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>305.3969917679799</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24979,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>108.041056930332</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -25092,7 +25092,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144772</v>
+        <v>125.9868393153733</v>
       </c>
       <c r="I34" t="n">
         <v>62.46433369811442</v>
@@ -25131,19 +25131,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>177.1322645779582</v>
+        <v>216.2041624002672</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -25365,19 +25365,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>234.7909711565236</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>103.6559966767367</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25444,19 +25444,19 @@
         <v>40.06170608735098</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>60.03778590972573</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>143.4646136442927</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -25560,10 +25560,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144772</v>
@@ -25608,13 +25608,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>188.3571592131762</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>187.4467647681062</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>270.7518270944233</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>205.7623619281695</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25800,7 +25800,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>122.2819741083859</v>
+        <v>158.0599878845028</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144772</v>
@@ -25839,10 +25839,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>167.541644338896</v>
+        <v>60.03778590972547</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>40.06170608735098</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26028,13 +26028,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
@@ -26076,22 +26076,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>234.7909711565236</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>141.274291430385</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>69185.40225968663</v>
+        <v>69185.40225968594</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>342573.7911158041</v>
+        <v>342573.791115804</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>342573.7911158041</v>
+        <v>342573.7911158039</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>342573.791115804</v>
+        <v>342573.7911158041</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>342573.791115804</v>
+        <v>342573.7911158041</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>342573.7911158041</v>
+        <v>342573.791115804</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>342573.7911158042</v>
+        <v>342573.791115804</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>29650.88668272284</v>
+        <v>29650.88668272256</v>
       </c>
       <c r="E2" t="n">
-        <v>146817.3390496304</v>
+        <v>146817.3390496303</v>
       </c>
       <c r="F2" t="n">
-        <v>146817.3390496303</v>
+        <v>146817.3390496302</v>
       </c>
       <c r="G2" t="n">
         <v>146817.3390496303</v>
@@ -26334,16 +26334,16 @@
         <v>146817.3390496303</v>
       </c>
       <c r="I2" t="n">
-        <v>146817.3390496303</v>
+        <v>146817.3390496304</v>
       </c>
       <c r="J2" t="n">
         <v>146817.3390496303</v>
       </c>
       <c r="K2" t="n">
-        <v>146817.3390496302</v>
+        <v>146817.3390496303</v>
       </c>
       <c r="L2" t="n">
-        <v>146817.3390496302</v>
+        <v>146817.3390496303</v>
       </c>
       <c r="M2" t="n">
         <v>146817.3390496303</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730576</v>
+        <v>117708.4675730565</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180445</v>
+        <v>439858.2450180454</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310192</v>
+        <v>30139.06600310163</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597481</v>
+        <v>117374.5815597483</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>83.50572484016293</v>
+        <v>83.50572484016215</v>
       </c>
       <c r="E4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="F4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="G4" t="n">
         <v>414.290544423169</v>
       </c>
       <c r="H4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="I4" t="n">
         <v>414.290544423169</v>
@@ -26475,16 +26475,16 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239234</v>
+        <v>42922.56227239226</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963783</v>
@@ -26493,7 +26493,7 @@
         <v>46051.08120963783</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963783</v>
@@ -26508,10 +26508,10 @@
         <v>46051.08120963783</v>
       </c>
       <c r="O5" t="n">
+        <v>46051.08120963782</v>
+      </c>
+      <c r="P5" t="n">
         <v>46051.08120963783</v>
-      </c>
-      <c r="P5" t="n">
-        <v>46051.08120963784</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-131063.6488875673</v>
+        <v>-132262.8224888032</v>
       </c>
       <c r="E6" t="n">
-        <v>-339506.2777224751</v>
+        <v>-340147.5158362515</v>
       </c>
       <c r="F6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179385</v>
       </c>
       <c r="G6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.7291817939</v>
       </c>
       <c r="H6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179391</v>
       </c>
       <c r="I6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179397</v>
       </c>
       <c r="J6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.7291817939</v>
       </c>
       <c r="K6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179391</v>
       </c>
       <c r="L6" t="n">
-        <v>70212.90129246733</v>
+        <v>69571.6631786923</v>
       </c>
       <c r="M6" t="n">
-        <v>-17022.61426417879</v>
+        <v>-17663.85237795441</v>
       </c>
       <c r="N6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179391</v>
       </c>
       <c r="O6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179393</v>
       </c>
       <c r="P6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179394</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480456</v>
+        <v>94.25048217480368</v>
       </c>
       <c r="E3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="F3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="G3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="H3" t="n">
         <v>466.7019280932212</v>
-      </c>
-      <c r="F3" t="n">
-        <v>466.7019280932212</v>
-      </c>
-      <c r="G3" t="n">
-        <v>466.7019280932213</v>
-      </c>
-      <c r="H3" t="n">
-        <v>466.7019280932213</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932213</v>
@@ -26795,13 +26795,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424596</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619344</v>
@@ -26813,7 +26813,7 @@
         <v>590.0818943619344</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619344</v>
@@ -26828,10 +26828,10 @@
         <v>590.0818943619344</v>
       </c>
       <c r="O4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="P4" t="n">
         <v>590.0818943619344</v>
-      </c>
-      <c r="P4" t="n">
-        <v>590.0818943619345</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480456</v>
+        <v>94.25048217480368</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184167</v>
+        <v>372.4514459184174</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424596</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194737</v>
+        <v>470.9979838194746</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424596</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194737</v>
+        <v>470.9979838194746</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424596</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194737</v>
+        <v>470.9979838194746</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529829</v>
+        <v>0.3788964107529793</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623987</v>
+        <v>3.88037286662395</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555439</v>
+        <v>14.60740387555425</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214601</v>
+        <v>32.15835924214571</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931979</v>
+        <v>48.19704430931933</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990139</v>
+        <v>59.79269533990084</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462975</v>
+        <v>66.53089438462914</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168167</v>
+        <v>67.60743381168103</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725669</v>
+        <v>63.83978262725609</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679242</v>
+        <v>54.48577748679191</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670121</v>
+        <v>40.91654977670083</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196208</v>
+        <v>23.80085166196186</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033606</v>
+        <v>8.634101960033526</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071183</v>
+        <v>1.658619038071168</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023862</v>
+        <v>0.03031171286023834</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250513</v>
+        <v>0.2027274522250494</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857733</v>
+        <v>1.957920393857715</v>
       </c>
       <c r="I9" t="n">
-        <v>6.97987061388883</v>
+        <v>6.979870613888764</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780628</v>
+        <v>19.1532984578061</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688471</v>
+        <v>32.73603775688441</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211038</v>
+        <v>44.01764264210997</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526848</v>
+        <v>51.366512785268</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286543</v>
+        <v>52.72603153286494</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619456</v>
+        <v>48.2340179861941</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006265</v>
+        <v>38.71205182006229</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542936</v>
+        <v>25.87798144542912</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779749</v>
+        <v>12.58688514779737</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531104</v>
+        <v>3.765573509531069</v>
       </c>
       <c r="T9" t="n">
-        <v>0.817133897345711</v>
+        <v>0.8171338973457033</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322707</v>
+        <v>0.01333733238322694</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889918</v>
+        <v>0.1699598858889902</v>
       </c>
       <c r="H10" t="n">
-        <v>1.51109789454031</v>
+        <v>1.511097894540296</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643501</v>
+        <v>5.111157295643453</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235172</v>
+        <v>12.01616393235161</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055741</v>
+        <v>19.74624856055722</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207793</v>
+        <v>25.2683997620777</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803532</v>
+        <v>26.64198465803507</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063092</v>
+        <v>26.00849781063068</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547314</v>
+        <v>24.02305732547292</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333769</v>
+        <v>20.5558756533375</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839549</v>
+        <v>14.23182280839536</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517757</v>
+        <v>7.642014505517686</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083611</v>
+        <v>2.961937284083583</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075102</v>
+        <v>0.7261922397075035</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308655</v>
+        <v>0.009270539230308569</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31788,10 +31788,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998885</v>
@@ -31940,19 +31940,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125715</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,19 +32177,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,31 +32229,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699062</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125718</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,13 +32466,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -32481,10 +32481,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916724</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917233</v>
@@ -32575,16 +32575,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002363</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233626</v>
@@ -33040,13 +33040,13 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742727</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
         <v>62.32672164233626</v>
@@ -33262,7 +33262,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33286,7 +33286,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183765</v>
@@ -33499,7 +33499,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33517,7 +33517,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -33654,7 +33654,7 @@
         <v>19.21451706968724</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699085</v>
       </c>
       <c r="J35" t="n">
         <v>159.2391669125711</v>
@@ -33754,13 +33754,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183765</v>
@@ -33973,7 +33973,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33994,7 +33994,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
         <v>62.32672164233626</v>
@@ -34210,7 +34210,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34234,7 +34234,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183765</v>
@@ -34447,7 +34447,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34471,7 +34471,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183765</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642299</v>
+        <v>14.19478239642285</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214601</v>
+        <v>32.15835924214568</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931979</v>
+        <v>48.19704430931935</v>
       </c>
       <c r="L8" t="n">
-        <v>59.7926953399014</v>
+        <v>59.79269533990083</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462973</v>
+        <v>66.53089438462914</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168169</v>
+        <v>67.60743381168103</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725668</v>
+        <v>63.83978262725611</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679241</v>
+        <v>54.4857774867919</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670123</v>
+        <v>40.91654977670083</v>
       </c>
       <c r="R8" t="n">
-        <v>23.8008516619621</v>
+        <v>23.80085166196187</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888835</v>
+        <v>6.979870613888764</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780627</v>
+        <v>19.1532984578061</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688471</v>
+        <v>32.7360377568844</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211039</v>
+        <v>44.01764264210996</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526847</v>
+        <v>51.36651278526799</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286542</v>
+        <v>52.72603153286494</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619454</v>
+        <v>48.23401798619412</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006264</v>
+        <v>38.7120518200623</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542938</v>
+        <v>25.8779814454291</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779749</v>
+        <v>12.58688514779737</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235173</v>
+        <v>12.01616393235161</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055743</v>
+        <v>19.74624856055723</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207793</v>
+        <v>25.26839976207769</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803531</v>
+        <v>26.64198465803507</v>
       </c>
       <c r="N10" t="n">
-        <v>26.0084978106309</v>
+        <v>26.00849781063067</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547313</v>
+        <v>24.02305732547291</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333769</v>
+        <v>20.55587565333749</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839546</v>
+        <v>14.23182280839535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,28 +35406,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125715</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35725,31 +35725,31 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415864</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125718</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35962,31 +35962,31 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -36065,7 +36065,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816033</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916724</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36281,7 +36281,7 @@
         <v>59.50067040624559</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -36302,7 +36302,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>191.6912126917234</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002363</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233622</v>
@@ -36594,7 +36594,7 @@
         <v>71.91914166785922</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -36603,7 +36603,7 @@
         <v>296.0766412766675</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562342</v>
@@ -36688,13 +36688,13 @@
         <v>261.0845059811315</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742727</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917234</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
         <v>62.32672164233622</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K28" t="n">
         <v>97.77787936116994</v>
@@ -36840,7 +36840,7 @@
         <v>296.0766412766675</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36910,7 +36910,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36934,7 +36934,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>71.91914166785922</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -37147,7 +37147,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37159,13 +37159,13 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785945</v>
       </c>
       <c r="J35" t="n">
         <v>159.2391669125711</v>
@@ -37402,13 +37402,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785922</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37554,7 +37554,7 @@
         <v>329.4423112816035</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -37621,7 +37621,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37633,7 +37633,7 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
@@ -37642,7 +37642,7 @@
         <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
         <v>62.32672164233622</v>
@@ -37779,10 +37779,10 @@
         <v>71.91914166785922</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766674</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -37870,7 +37870,7 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -37882,7 +37882,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624559</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K43" t="n">
         <v>97.77787936116994</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38107,7 +38107,7 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
@@ -38119,7 +38119,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
